--- a/data_excel/452.xlsx
+++ b/data_excel/452.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kokoronight\Desktop\1000題example excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ailab-master\ailab-master\ai-lab\data_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -75,9 +75,6 @@
     <t>剩下</t>
   </si>
   <si>
-    <t>total</t>
-  </si>
-  <si>
     <t>個</t>
   </si>
   <si>
@@ -127,6 +124,10 @@
   </si>
   <si>
     <t>分給</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>left</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -134,7 +135,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -157,6 +158,13 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -230,12 +238,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -541,7 +550,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C15" activeCellId="3" sqref="A9:C9 A15 B15 C15"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -606,7 +615,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -626,7 +635,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -639,8 +648,8 @@
       <c r="E5" t="s">
         <v>17</v>
       </c>
-      <c r="F5" t="s">
-        <v>18</v>
+      <c r="F5" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="G5" t="s">
         <v>14</v>
@@ -648,7 +657,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
@@ -657,10 +666,10 @@
         <v>8</v>
       </c>
       <c r="E6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" t="s">
         <v>20</v>
-      </c>
-      <c r="F6" t="s">
-        <v>21</v>
       </c>
       <c r="G6" t="s">
         <v>5</v>
@@ -668,13 +677,13 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
       <c r="E7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F7" t="s">
         <v>7</v>
@@ -685,10 +694,10 @@
     </row>
     <row r="8" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -696,29 +705,29 @@
     </row>
     <row r="9" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
         <v>27</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>28</v>
-      </c>
-      <c r="C10" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B11" t="s">
         <v>1</v>
@@ -729,7 +738,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
         <v>7</v>
@@ -740,15 +749,15 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
         <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B14" t="s">
         <v>4</v>
@@ -759,29 +768,29 @@
     </row>
     <row r="15" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" t="s">
         <v>28</v>
-      </c>
-      <c r="C16" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B17" t="s">
         <v>1</v>
@@ -792,7 +801,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18" t="s">
         <v>7</v>
@@ -803,15 +812,15 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
